--- a/Config/Datas/Game/Skill.xlsx
+++ b/Config/Datas/Game/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47ED73C-E2D5-411A-BF13-917301A1392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2763C4F-8A04-4B70-9A93-8356C21896F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="43890" yWindow="4515" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -114,12 +114,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -585,7 +587,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,7 +671,9 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>

--- a/Config/Datas/Game/Skill.xlsx
+++ b/Config/Datas/Game/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2763C4F-8A04-4B70-9A93-8356C21896F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343B263-A6C4-4A0E-8C89-6CE75FA66D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>cost_mana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击Lv.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,6 +810,23 @@
       <c r="F8" s="4"/>
       <c r="G8" s="1">
         <v>10000102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>10000201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10000201</v>
       </c>
     </row>
   </sheetData>
